--- a/imageCreationExcel/back/0901-1/0901-1_9.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_9.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.40038384537116</v>
+        <v>0.6878762323523246</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,24 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.4873845282321704</v>
+        <v>0.1837950484774294</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9007404240023783</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_7_brightness15.0_sharpness0.49_contrast0.9.jpg</t>
+          <t>1_0_gamma0.69_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +530,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,15 +539,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9487563831652384</v>
+        <v>0.5292852974569361</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9074382149318511</v>
+        <v>1.713675211958946</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +555,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9052268409819523</v>
+        <v>0.7543457238233564</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_T_gamma0.95_contrast0.91_sharpness0.91.jpg</t>
+          <t>2_7_gamma0.53_brightness1.7_sharpness0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -570,41 +572,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.954179425314031</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>18.25897112049621</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F4" t="n">
-        <v>0.9134791583698771</v>
+        <v>10.22506107779095</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2511990691479171</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_brightness18.0_contrast0.91.jpg</t>
+          <t>3_S_contrast0.95_brightness10.0_sharpness0.25.jpg</t>
         </is>
       </c>
     </row>
@@ -614,41 +614,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7957839982833457</v>
+        <v>1.02471695782062</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.141662313910888</v>
+        <v>0.4010781179097</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9.534379120880432</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_gamma0.8_contrast1.1.jpg</t>
+          <t>4_T_contrast1.0_sharpness0.4_equalization9.5.jpg</t>
         </is>
       </c>
     </row>
@@ -658,39 +656,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05393308253539186</v>
+        <v>1.007229491606656</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5375973835869917</v>
+        <v>17.81849705698465</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1.015684831496814</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_1_sharpness0.054_gamma0.54_contrast1.0.jpg</t>
+          <t>5_T_gamma1.0_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -700,39 +700,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9169058952469338</v>
+        <v>0.8899141883294119</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25.0929299767382</v>
+        <v>18.83264189169886</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9104945710949781</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_8_contrast0.92_brightness25.0_gamma0.91.jpg</t>
+          <t>6_1_gamma0.89_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -747,36 +749,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7684615732960351</v>
+        <v>0.3233675857812068</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.99987210319886</v>
+        <v>1.152885108738353</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10.29261333039926</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_gamma0.77_brightness3.0.jpg</t>
+          <t>7_P_sharpness0.32_contrast1.2_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.017077596183384</v>
+        <v>0.8779408820549285</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8238346519739267</v>
+        <v>1.112186386974958</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -811,14 +811,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>22.84930063630229</v>
+        <v>22.43034042941593</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_C_gamma1.0_contrast0.82_equalization23.0.jpg</t>
+          <t>8_S_gamma0.88_contrast1.1_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -828,39 +828,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5359752798365088</v>
+        <v>0.4831171673122627</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.897670132314623</v>
+        <v>1.176284103454282</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.2828175087767559</v>
+        <v>31.14313954871713</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_P_gamma0.54_brightness3.9_sharpness0.28.jpg</t>
+          <t>9_C_sharpness0.48_contrast1.2_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -870,41 +870,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6621427576493217</v>
+        <v>28.02392835249244</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.193930688796875</v>
+        <v>0.8684147281290879</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1774442094522871</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_S_gamma0.66_equalization6.2.jpg</t>
+          <t>10_9_brightness28.0_gamma0.87_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -914,24 +912,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.064389738290671</v>
+        <v>1.11760497427924</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9213881895439906</v>
+        <v>0.1356934592903078</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -948,7 +946,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_3_gamma1.1_contrast0.92.jpg</t>
+          <t>11_C_contrast1.1_sharpness0.14.jpg</t>
         </is>
       </c>
     </row>
@@ -958,39 +956,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.912812947871065</v>
+        <v>0.5996487725871724</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8971554579566344</v>
+        <v>0.9213898643688319</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>26.94681447110267</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_Q_contrast0.91_sharpness0.9_equalization27.0.jpg</t>
+          <t>12_7_sharpness0.6_gamma0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1009,15 +1009,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.579373990689133</v>
+        <v>21.67688066152121</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.673972175188862</v>
+        <v>1.184021860135954</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_9_brightness2.6_sharpness0.67.jpg</t>
+          <t>13_I_brightness22.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1053,30 +1053,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.183013610689131</v>
+        <v>1.171313482698777</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17.34739589300029</v>
+        <v>0.6681701890738171</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8044757659625957</v>
+        <v>15.71025579866069</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_contrast1.2_brightness17.0_gamma0.8.jpg</t>
+          <t>14_3_contrast1.2_gamma0.67_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1086,41 +1086,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8360680230015076</v>
+        <v>1.017426814935527</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17.11998226767541</v>
+        <v>0.9883972306924239</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10.74503395189196</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_E_contrast0.84_brightness17.0.jpg</t>
+          <t>15_C_gamma1.0_contrast0.99_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1130,39 +1128,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.171022312489922</v>
+        <v>24.85791548827525</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9892746666970655</v>
+        <v>0.9738277402216384</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>13.94873549014493</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_S_contrast1.2_gamma0.99_equalization14.0.jpg</t>
+          <t>16_C_brightness25.0_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1172,24 +1172,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5212858504955823</v>
+        <v>26.4892243803642</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.023420327971989</v>
+        <v>0.8006615090482068</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_C_gamma0.52_contrast1.0.jpg</t>
+          <t>17_2_brightness26.0_gamma0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1216,39 +1216,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.40883838880847</v>
+        <v>0.6306635470426024</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5469782645643739</v>
+        <v>0.9075157228634007</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1.120500676033716</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_brightness10.0_gamma0.55_contrast1.1.jpg</t>
+          <t>18_7_gamma0.63_sharpness0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1267,15 +1269,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6484792743862062</v>
+        <v>0.7710242855304532</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7994272128125218</v>
+        <v>16.32071749467416</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1292,7 +1294,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_C_gamma0.65_sharpness0.8.jpg</t>
+          <t>19_9_gamma0.77_brightness16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1304,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1311,30 +1313,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.098182786322776</v>
+        <v>0.8452371118946267</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20.50880410699034</v>
+        <v>0.3519444316110268</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5647225134039141</v>
+        <v>24.19369303938176</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_2_contrast1.1_brightness21.0_gamma0.56.jpg</t>
+          <t>20_E_contrast0.85_sharpness0.35_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1344,39 +1346,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1.130276795571942</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>7.121059348727078</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F22" t="n">
-        <v>0.1296219972000343</v>
+        <v>5.593330083650606</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9546179990409853</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_7_brightness7.1_sharpness0.13_contrast0.95.jpg</t>
+          <t>21_J_contrast1.1_brightness5.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1386,16 +1390,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19.79313306446872</v>
+        <v>0.784261085498594</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1403,22 +1407,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.059696200025563</v>
+        <v>0.8720803229767502</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9503278571623309</v>
+        <v>10.16819313173348</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_brightness20.0_contrast1.1_sharpness0.95.jpg</t>
+          <t>22_B_gamma0.78_contrast0.87_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1432,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1437,7 +1441,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.171359770073018</v>
+        <v>0.9972519964670642</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1445,22 +1449,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1790708859485712</v>
+        <v>0.0002420037991264223</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>24.26148950830818</v>
+        <v>5.021026276680205</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_9_contrast1.2_sharpness0.18_equalization24.0.jpg</t>
+          <t>23_C_contrast1.0_sharpness0.00024_brightness5.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1474,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1479,32 +1483,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.210310678374489</v>
+        <v>0.7275407139895681</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6546547225475224</v>
+        <v>25.12231968348934</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9018797060789349</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_C_sharpness0.21_gamma0.65.jpg</t>
+          <t>24_P_sharpness0.73_brightness25.0_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1514,39 +1516,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.822970951911954</v>
+        <v>0.8021499210755432</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5253180957851576</v>
+        <v>1.133151052127714</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>0.9166695626241427</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_sharpness0.82_gamma0.53_contrast0.92.jpg</t>
+          <t>25_C_gamma0.8_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1556,39 +1560,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9503919135626656</v>
+        <v>2.889889961425476</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7424944176214143</v>
+        <v>0.710954522031873</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>24.54142815112009</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_J_contrast0.95_sharpness0.74_equalization25.0.jpg</t>
+          <t>26_B_brightness2.9_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -1598,39 +1604,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.1677127694813429</v>
+        <v>0.6017144965360738</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.57732943480004</v>
+        <v>1.089832645688844</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>20.61116210445378</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_sharpness0.17_gamma0.58_equalization21.0.jpg</t>
+          <t>27_E_gamma0.6_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1640,24 +1648,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.091624898546166</v>
+        <v>0.8138546302512127</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17.95055841840456</v>
+        <v>0.2407102440515092</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1674,7 +1682,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_E_gamma1.1_equalization18.0.jpg</t>
+          <t>28_9_contrast0.81_sharpness0.24.jpg</t>
         </is>
       </c>
     </row>
@@ -1689,34 +1697,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.760563772855691</v>
+        <v>13.58829540030262</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8683228344319718</v>
+        <v>0.02470798487574288</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>21.04197624054937</v>
+        <v>0.9782521645261157</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_B_gamma0.76_contrast0.87_equalization21.0.jpg</t>
+          <t>29_B_brightness14.0_sharpness0.025_gamma0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -1726,39 +1734,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.170728389362222</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0.1223489207672988</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F31" t="n">
-        <v>0.880811938425742</v>
+        <v>0.5847409077598328</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.0997029553211</v>
+        <v>0.8328256421454878</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_T_sharpness0.12_contrast0.88_equalization6.1.jpg</t>
+          <t>30_J_contrast1.2_sharpness0.58_gamma0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1768,39 +1776,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5683022344867698</v>
+        <v>1.188909572558702</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.329280986265245</v>
+        <v>0.7433874445316765</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.1478414745855056</v>
+        <v>19.97647286406503</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_C_gamma0.57_brightness2.3_sharpness0.15.jpg</t>
+          <t>31_9_contrast1.2_sharpness0.74_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1810,39 +1818,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8377949352630989</v>
+        <v>0.9831660933149139</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.175014163775436</v>
+        <v>24.86137775621826</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>13.06815501293067</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_gamma0.84_contrast1.2_equalization13.0.jpg</t>
+          <t>32_E_contrast0.98_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1852,24 +1862,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9235230040364253</v>
+        <v>0.06918454927111939</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4682107556053667</v>
+        <v>0.8849561778590617</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1877,14 +1887,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.18853758488047</v>
+        <v>24.01871960954827</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_E_gamma0.92_sharpness0.47_equalization18.0.jpg</t>
+          <t>33_I_sharpness0.069_contrast0.88_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1894,41 +1904,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.042596603055823</v>
+        <v>1.53635125044189</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>14.36721564062371</v>
+        <v>0.9309628882989738</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4684576476392169</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_3_gamma1.0_equalization14.0.jpg</t>
+          <t>34_C_brightness1.5_gamma0.93_sharpness0.47.jpg</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1946,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1947,32 +1955,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8293262537221529</v>
+        <v>1.174899762304182</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8067565241278278</v>
+        <v>25.97081600241065</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.613365341602595</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_contrast0.83_gamma0.81.jpg</t>
+          <t>35_8_contrast1.2_brightness26.0_gamma0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1991,30 +1997,32 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5980722597448438</v>
+        <v>0.9678450814205753</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.176353538474382</v>
+        <v>5.528946271559592</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>20.16497686009331</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_I_gamma0.6_contrast1.2_equalization20.0.jpg</t>
+          <t>36_9_gamma0.97_equalization5.5.jpg</t>
         </is>
       </c>
     </row>
@@ -2024,16 +2032,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17.78056631428815</v>
+        <v>0.1621667917031487</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2041,7 +2049,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.027871100622277</v>
+        <v>0.7259555410946215</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2058,7 +2066,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_2_brightness18.0_gamma1.0.jpg</t>
+          <t>37_B_sharpness0.16_gamma0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2076,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2077,30 +2085,32 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9.87294611033202</v>
+        <v>20.94063483269062</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.3671281967361544</v>
+        <v>1.008202336410472</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>0.6106362074935983</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_S_brightness9.9_sharpness0.37_gamma0.61.jpg</t>
+          <t>38_7_brightness21.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2110,39 +2120,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9093131778603668</v>
+        <v>28.02716281519719</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.894969409729784</v>
+        <v>0.9105062372612147</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>15.38852840978102</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_T_contrast0.91_sharpness0.89_equalization15.0.jpg</t>
+          <t>39_1_brightness28.0_gamma0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -2152,16 +2164,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9759774799045662</v>
+        <v>0.6151699759507359</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2169,7 +2181,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>31.23376698709744</v>
+        <v>26.79947989039301</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2186,7 +2198,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_0_contrast0.98_equalization31.0.jpg</t>
+          <t>40_I_gamma0.62_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2196,24 +2208,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6264054885144615</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>9.008959266072473</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F42" t="n">
-        <v>0.0626740314640768</v>
+        <v>3.96942398134718</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2230,7 +2242,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_brightness9.0_sharpness0.063.jpg</t>
+          <t>41_1_gamma0.63_brightness4.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2240,39 +2252,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.06132529415700949</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.11810124089105</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>17.54914639793709</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1.13349901446059</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H43" t="n">
-        <v>1.000880600801304</v>
+        <v>23.42600963803204</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_brightness18.0_contrast1.1_gamma1.0.jpg</t>
+          <t>42_B_sharpness0.061_contrast1.1_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2294,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2291,30 +2303,32 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.943203834831885</v>
+        <v>0.7377270738362178</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.1235065026255949</v>
+        <v>10.37214432602424</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5.449173298586743</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_gamma0.94_sharpness0.12_equalization5.4.jpg</t>
+          <t>43_1_gamma0.74_brightness10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2324,41 +2338,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8035373188895965</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.143294574271612</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>5.870146797556563</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.9362594134655426</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H45" t="n">
+        <v>20.37395580170857</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_3_brightness5.9_gamma0.94.jpg</t>
+          <t>44_P_gamma0.8_contrast1.1_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2368,24 +2380,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8902901947440988</v>
+        <v>0.9515330979046116</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.661671744055379</v>
+        <v>0.4645525521488397</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2393,14 +2405,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>31.14379601477286</v>
+        <v>6.575581078486613</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_contrast0.89_gamma0.66_equalization31.0.jpg</t>
+          <t>45_T_gamma0.95_sharpness0.46_equalization6.6.jpg</t>
         </is>
       </c>
     </row>
@@ -2419,30 +2431,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8389418938896495</v>
+        <v>0.9852782803790782</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.7156069881938337</v>
+        <v>0.7780036878478133</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>26.1166869547044</v>
+        <v>22.90901240429181</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_contrast0.84_sharpness0.72_equalization26.0.jpg</t>
+          <t>46_C_contrast0.99_gamma0.78_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2452,41 +2464,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.846997918835721</v>
+        <v>17.58934028313595</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22.77946762564666</v>
+        <v>0.9460931018429501</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9810022034558545</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_contrast0.85_equalization23.0.jpg</t>
+          <t>47_S_brightness18.0_gamma0.95_contrast0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2506,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2505,30 +2515,32 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9338286494868457</v>
+        <v>0.2297918532527145</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6443193597864969</v>
+        <v>0.9289960743096306</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>20.28544825794246</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_J_sharpness0.93_gamma0.64_equalization20.0.jpg</t>
+          <t>48_B_sharpness0.23_contrast0.93.jpg</t>
         </is>
       </c>
     </row>
